--- a/Excel/class7final.xlsx
+++ b/Excel/class7final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/WORK/Personal/xlsx_to_vcf/Excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6925531-A183-344E-AC41-3D7E76FE65A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="15255" windowHeight="6150" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="15260" windowHeight="6160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -27,9 +33,6 @@
     <t>7 -A</t>
   </si>
   <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swasti Goyal </t>
   </si>
   <si>
@@ -313,16 +316,19 @@
   </si>
   <si>
     <t>Last</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\7\-\C\ \l"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,12 +340,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,15 +546,23 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 6" xfId="5"/>
-    <cellStyle name="Normal 7" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -593,7 +609,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,9 +641,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,6 +693,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -834,434 +886,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>9319419378</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>9997906926</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5">
         <v>7017434123</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>7275968841</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5">
         <v>9758131326</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5">
         <v>7895282773</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="12">
         <v>9520203076</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5">
         <v>7060101095</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5">
         <v>9219215217</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5">
         <v>7895756273</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5">
         <v>9058284454</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="26.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5">
         <v>9760766369</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
         <v>9917669538</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5">
         <v>9897832567</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="5">
         <v>8380027532</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="26.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="5">
         <v>9410019129</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5">
         <v>7830030066</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5">
         <v>9761299448</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5">
         <v>9045845009</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5">
         <v>8630491934</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5">
         <v>8899473204</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6">
         <v>9045616389</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6">
         <v>7500853064</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="6">
         <v>9411293771</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6">
         <v>8630779086</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="9">
         <v>9837500937</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="9">
         <v>8750115702</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9">
         <v>9760514042</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="9">
         <v>8923065735</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9">
         <v>9897642837</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9">
         <v>9917122498</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9">
         <v>9897644194</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="9">
         <v>9719971469</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="9"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="9"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="9"/>
     </row>
@@ -1271,416 +1323,416 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="C3" s="18">
         <v>9634742467</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="18">
         <v>9997855280</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="18">
         <v>6398025446</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="18">
         <v>7017985066</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="18">
         <v>8868028337</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="18">
         <v>8445000164</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="18">
         <v>8630834565</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="18">
         <v>9997664485</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="18">
         <v>9758555559</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="18">
         <v>9012755550</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="18">
         <v>9837462235</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="18">
         <v>9927414104</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="18">
         <v>9315151710</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="18">
         <v>9368075610</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="18">
         <v>8630689941</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="18">
         <v>9045226903</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="25">
         <v>9927009241</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="25">
         <v>9634627649</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="25">
         <v>9528393186</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="20">
         <v>9319140397</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="26">
         <v>7409892709</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="22">
         <v>9759451727</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="26">
         <v>9997677030</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="26">
         <v>9759937599</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="22">
         <v>8869079310</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="22">
         <v>7983124020</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="26">
         <v>9675276606</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="26">
         <v>8448665590</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="26">
         <v>7275968841</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="24"/>
       <c r="C32" s="22"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="24"/>
       <c r="C33" s="22"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="24"/>
       <c r="C34" s="22"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="24"/>
       <c r="C35" s="22"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="24"/>
       <c r="C36" s="22"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="24"/>
       <c r="C37" s="22"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="24"/>
       <c r="C38" s="22"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="24"/>
       <c r="C39" s="22"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="24"/>
       <c r="C40" s="22"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="24"/>
       <c r="C41" s="22"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="24"/>
       <c r="C42" s="22"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="24"/>
       <c r="C43" s="22"/>
@@ -1691,420 +1743,420 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>68</v>
       </c>
       <c r="C2" s="34">
         <v>9458673924</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="34">
         <v>8755528944</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="34">
         <v>9897220270</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="34">
         <v>9557654997</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="35" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>74</v>
       </c>
       <c r="C7" s="34">
         <v>6398145696</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="34">
         <v>7302310512</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="34">
         <v>7088586892</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="34">
         <v>8923034571</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="34">
         <v>9927071919</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="34">
         <v>7017388867</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="34">
         <v>8534966621</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="34">
         <v>7906042894</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="42">
         <v>9997424730</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="36">
         <v>7900983161</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="36">
         <v>8958358362</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="36">
         <v>9528513498</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="36">
         <v>8474941624</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="38">
         <v>8604255632</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="38">
         <v>8077767419</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="38">
         <v>9627535986</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="43">
         <v>9759192002</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="38">
         <v>9193611415</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="38">
         <v>7999227149</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="38">
         <v>755948841</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" s="38">
         <v>9319901020</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="38">
         <v>9719523373</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="38">
         <v>9758208677</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="38">
         <v>6395684590</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="40"/>
       <c r="C31" s="38"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="40"/>
       <c r="C32" s="38"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="40"/>
       <c r="C33" s="38"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="40"/>
       <c r="C34" s="38"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="40"/>
       <c r="C35" s="38"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="40"/>
       <c r="C36" s="38"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="40"/>
       <c r="C37" s="38"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
       <c r="B38" s="40"/>
       <c r="C38" s="38"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="40"/>
       <c r="C39" s="38"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="40"/>
       <c r="C40" s="38"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" s="40"/>
       <c r="C41" s="38"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="40"/>
       <c r="C42" s="38"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="40"/>
       <c r="C43" s="38"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="B44" s="40"/>
       <c r="C44" s="38"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" s="40"/>
       <c r="C45" s="38"/>
